--- a/ADC_PWM_Board/ADC_PWM_Board_Rev_A1_BOM.xlsx
+++ b/ADC_PWM_Board/ADC_PWM_Board_Rev_A1_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Quantity</t>
   </si>
@@ -168,9 +168,6 @@
     <t xml:space="preserve">MULTICOMP - MCMR06X1000FTL - Surface Mount Chip Resistor, Ceramic, MCMR Series, 100 ohm, 100 mW,   1%, 75 V, 0603 [1608 Metric] </t>
   </si>
   <si>
-    <t>4K7</t>
-  </si>
-  <si>
     <t>TEXAS INSTRUMENTS</t>
   </si>
   <si>
@@ -312,10 +309,10 @@
     <t>Colonne10</t>
   </si>
   <si>
-    <t>Multicomp</t>
-  </si>
-  <si>
-    <t>Broadcom Limited</t>
+    <t>2K7</t>
+  </si>
+  <si>
+    <t>MULTICOMP</t>
   </si>
 </sst>
 </file>
@@ -376,16 +373,81 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,31 +535,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:S17" totalsRowShown="0">
-  <autoFilter ref="A1:S17"/>
-  <sortState ref="A2:S17">
-    <sortCondition ref="C1:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:S16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:S16"/>
+  <sortState ref="A2:S13">
+    <sortCondition ref="C1:C13"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Quantity"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Package"/>
-    <tableColumn id="4" name="Order code"/>
-    <tableColumn id="5" name="Manufacturer"/>
-    <tableColumn id="6" name="Manuf. Code"/>
-    <tableColumn id="7" name="Availability"/>
-    <tableColumn id="8" name="Price (from)"/>
-    <tableColumn id="9" name="Description"/>
-    <tableColumn id="10" name="Colonne1"/>
-    <tableColumn id="11" name="Colonne2"/>
-    <tableColumn id="12" name="Colonne3"/>
-    <tableColumn id="13" name="Colonne4"/>
-    <tableColumn id="14" name="Colonne5"/>
-    <tableColumn id="15" name="Colonne6"/>
-    <tableColumn id="16" name="Colonne7"/>
-    <tableColumn id="17" name="Colonne8"/>
-    <tableColumn id="18" name="Colonne9"/>
-    <tableColumn id="19" name="Colonne10"/>
+    <tableColumn id="1" name="Quantity" dataDxfId="20"/>
+    <tableColumn id="2" name="Value" dataDxfId="19"/>
+    <tableColumn id="3" name="Package" dataDxfId="18"/>
+    <tableColumn id="4" name="Order code" dataDxfId="17"/>
+    <tableColumn id="5" name="Manufacturer" dataDxfId="16"/>
+    <tableColumn id="6" name="Manuf. Code" dataDxfId="15"/>
+    <tableColumn id="7" name="Availability" dataDxfId="14"/>
+    <tableColumn id="8" name="Price (from)" dataDxfId="13"/>
+    <tableColumn id="9" name="Description" dataDxfId="12"/>
+    <tableColumn id="10" name="Colonne1" dataDxfId="11"/>
+    <tableColumn id="11" name="Colonne2" dataDxfId="10"/>
+    <tableColumn id="12" name="Colonne3" dataDxfId="9"/>
+    <tableColumn id="13" name="Colonne4" dataDxfId="8"/>
+    <tableColumn id="14" name="Colonne5" dataDxfId="7"/>
+    <tableColumn id="15" name="Colonne6" dataDxfId="6"/>
+    <tableColumn id="16" name="Colonne7" dataDxfId="5"/>
+    <tableColumn id="17" name="Colonne8" dataDxfId="4"/>
+    <tableColumn id="18" name="Colonne9" dataDxfId="3"/>
+    <tableColumn id="19" name="Colonne10" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -802,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -825,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,140 +933,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="122.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="122.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="11.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="S1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2007041</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4">
-        <v>195</v>
+        <v>4249</v>
       </c>
       <c r="H2" s="4">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>2007069</v>
+        <v>2007041</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="H3" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1021,7 +1084,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1032,66 +1095,66 @@
       <c r="H4" s="4">
         <v>0.60099999999999998</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
-        <v>2007130</v>
+        <v>2007069</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2007130</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G6" s="4">
-        <v>4249</v>
+        <v>196</v>
       </c>
       <c r="H6" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1101,7 +1164,7 @@
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1119,7 +1182,7 @@
       <c r="H7" s="4">
         <v>0.66700000000000004</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1128,19 +1191,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4">
         <v>24613</v>
@@ -1148,8 +1211,8 @@
       <c r="H8" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="I8" t="s">
-        <v>58</v>
+      <c r="I8" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1157,19 +1220,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="4">
         <v>6621</v>
@@ -1177,8 +1240,8 @@
       <c r="H9" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="I9" t="s">
-        <v>62</v>
+      <c r="I9" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1186,19 +1249,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="4">
         <v>97318</v>
@@ -1206,8 +1269,8 @@
       <c r="H10" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="I10" t="s">
-        <v>66</v>
+      <c r="I10" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1215,19 +1278,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -1235,8 +1298,8 @@
       <c r="H11" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="I11" t="s">
-        <v>70</v>
+      <c r="I11" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1246,7 +1309,7 @@
       <c r="B12" s="4">
         <v>100</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1264,7 +1327,7 @@
       <c r="H12" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1273,9 +1336,9 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1293,7 +1356,7 @@
       <c r="H13" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1302,28 +1365,28 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4">
-        <v>505</v>
+        <v>1380</v>
       </c>
       <c r="H14" s="4">
-        <v>3.28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1331,28 +1394,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4">
-        <v>1536</v>
+        <v>505</v>
       </c>
       <c r="H15" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="I15" t="s">
-        <v>84</v>
+        <v>3.28</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1360,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="4">
-        <v>1380</v>
+        <v>1536</v>
       </c>
       <c r="H16" s="4">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="I16" t="s">
-        <v>80</v>
+        <v>0.255</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
